--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>83.03844637079042</v>
+        <v>89.78901919281805</v>
       </c>
     </row>
     <row r="3">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>60.76342154241423</v>
+        <v>65.7031563275043</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>89.78901919281805</v>
+        <v>89.62602590419766</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.00232117553715</v>
+        <v>0.9823068853471902</v>
       </c>
     </row>
     <row r="4">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
     </row>
     <row r="5">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.217294726105878</v>
+        <v>1.197280435915919</v>
       </c>
     </row>
     <row r="6">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
     </row>
     <row r="9">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
     <row r="10">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
   </sheetData>
@@ -1538,31 +1538,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.00232117553715</v>
+        <v>0.9823068853471902</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.217294726105878</v>
+        <v>1.197280435915919</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
     <row r="5">
@@ -1575,31 +1575,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.00232117553715</v>
+        <v>0.9823068853471902</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.217294726105878</v>
+        <v>1.197280435915919</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
     <row r="6">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>89.62602590419766</v>
+        <v>92.31243281328341</v>
       </c>
     </row>
     <row r="3">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
     </row>
     <row r="4">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
     </row>
     <row r="5">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
     <row r="6">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
     </row>
     <row r="7">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
     </row>
     <row r="8">

--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -644,37 +644,37 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>16</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.18881118881119</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>55.94405594405595</v>
+        <v>53.59477124183007</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>67.13286713286713</v>
+        <v>64.05228758169935</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
     </row>
   </sheetData>
@@ -766,37 +766,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.235294117647058</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>54.11764705882353</v>
+        <v>50.53763440860215</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>37.64705882352941</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>62.35294117647059</v>
+        <v>58.06451612903226</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>37.64705882352941</v>
+        <v>41.93548387096774</v>
       </c>
     </row>
     <row r="3">
@@ -807,37 +807,37 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>15.51724137931035</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>58.62068965517241</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>25.86206896551724</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>74.13793103448276</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>25.86206896551724</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -850,37 +850,37 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.18881118881119</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>55.94405594405595</v>
+        <v>53.59477124183007</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>67.13286713286713</v>
+        <v>64.05228758169935</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>37</v>
@@ -951,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>15</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>18</v>
@@ -1204,37 +1204,37 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.18881118881119</v>
+        <v>10.45751633986928</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>55.94405594405595</v>
+        <v>53.59477124183007</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>67.13286713286713</v>
+        <v>64.05228758169935</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>32.86713286713287</v>
+        <v>35.94771241830065</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>42</v>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9823068853471902</v>
+        <v>1.042822416980868</v>
       </c>
     </row>
     <row r="4">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
     </row>
     <row r="5">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.197280435915919</v>
+        <v>1.257795967549597</v>
       </c>
     </row>
     <row r="6">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
     </row>
     <row r="9">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
     <row r="10">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
     </row>
     <row r="11">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
   </sheetData>
@@ -1538,31 +1538,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9823068853471902</v>
+        <v>1.042822416980868</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.197280435915919</v>
+        <v>1.257795967549597</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
     <row r="5">
@@ -1575,31 +1575,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9823068853471902</v>
+        <v>1.042822416980868</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.197280435915919</v>
+        <v>1.257795967549597</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
     <row r="6">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>92.31243281328341</v>
+        <v>93.462218161873</v>
       </c>
     </row>
     <row r="3">
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
     </row>
     <row r="4">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
     </row>
     <row r="5">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
     <row r="6">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
     </row>
     <row r="7">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
     </row>
     <row r="8">

--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -50,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -124,27 +127,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -176,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,13 +176,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,7 +964,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1005,6 +986,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>7.526881720430108</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>50.53763440860215</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>41.93548387096774</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>58.06451612903226</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>41.93548387096774</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>26.66666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,13 +1438,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,138 +1453,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B4" s="4" t="n">
         <v>0.2149735505687284</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="C4" s="4" t="n">
         <v>1.042822416980868</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.2544816107386248</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>1.257795967549597</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.2544816107386248</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>14.21521773880041</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>68.95707718957658</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="I4" s="4" t="n">
         <v>16.82770507162302</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>83.17229492837699</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>16.82770507162302</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1446,19 +1604,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="12" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1514,11 +1672,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1531,97 +1685,110 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
-        <v>21</v>
+      <c r="A4" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.2149735505687284</v>
+        <v>0.1892223850816192</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.042822416980868</v>
+        <v>0.6787111595998283</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2246607364421306</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.257795967549597</v>
+        <v>0.8679335446814476</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2246607364421306</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.21521773880041</v>
+        <v>17.31863220874915</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.95707718957658</v>
+        <v>62.1192304706071</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>20.56213732064376</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>83.17229492837699</v>
+        <v>79.43786267935624</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>20.56213732064376</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.2149735505687284</v>
+      <c r="A5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.02575116548710926</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.042822416980868</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.3641112573810401</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>0.02982087429649416</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.257795967549597</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.3898624228681494</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>0.02982087429649416</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.21521773880041</v>
+        <v>6.135856647401186</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.95707718957658</v>
+        <v>86.7585772035616</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>7.105566149037212</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>83.17229492837699</v>
+        <v>92.89443385096278</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>7.105566149037212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
+          <t>Area 21 Total</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.2149735505687284</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.042822416980868</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2544816107386248</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.257795967549597</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.2544816107386248</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.2152177388004</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>68.95707718957658</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.82770507162302</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>83.17229492837699</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.82770507162302</v>
       </c>
     </row>
   </sheetData>
@@ -1633,13 +1800,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,154 +1815,151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>93.462218161873</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B4" s="4" t="n">
+        <v>93.596662260502</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>14.21521773880041</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>68.95707718957658</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="E4" s="4" t="n">
         <v>16.82770507162302</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="F4" s="4" t="n">
         <v>83.17229492837699</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="G4" s="4" t="n">
         <v>16.82770507162302</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>65.7031563275043</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="H4" s="4" t="n">
+        <v>65.71529919139962</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>4.178653654593925</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>85.55454704186324</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>10.26679930354283</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>89.73320069645717</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="M4" s="4" t="n">
         <v>10.26679930354283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -1547,31 +1547,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.042822416980868</v>
+        <v>1.042712087053505</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2546138677691986</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.257795967549597</v>
+        <v>1.257685637622233</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2546138677691986</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.21521773880041</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.95707718957658</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>83.17229492837699</v>
+        <v>83.16379349054299</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
     </row>
   </sheetData>
@@ -1692,31 +1692,31 @@
         <v>0.1892223850816192</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6787111595998283</v>
+        <v>0.678710753636293</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2246607364421306</v>
+        <v>0.221122030943531</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8679335446814476</v>
+        <v>0.8679331387179121</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2246607364421306</v>
+        <v>0.221122030943531</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.31863220874915</v>
+        <v>17.37491270900841</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>62.1192304706071</v>
+        <v>62.32106256355085</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.56213732064376</v>
+        <v>20.30402472744073</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>79.43786267935624</v>
+        <v>79.69597527255927</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>20.56213732064376</v>
+        <v>20.30402472744073</v>
       </c>
     </row>
     <row r="5">
@@ -1727,31 +1727,31 @@
         <v>0.02575116548710926</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.3641112573810401</v>
+        <v>0.3640013334172121</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.02982087429649416</v>
+        <v>0.03349183682566764</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.3898624228681494</v>
+        <v>0.3897524989043214</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>0.02982087429649416</v>
+        <v>0.03349183682566764</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.135856647401186</v>
+        <v>6.084231568674163</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>86.7585772035616</v>
+        <v>86.00264733357913</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.105566149037212</v>
+        <v>7.913121097746699</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>92.89443385096278</v>
+        <v>92.08687890225329</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.105566149037212</v>
+        <v>7.913121097746699</v>
       </c>
     </row>
     <row r="6">
@@ -1764,31 +1764,31 @@
         <v>0.2149735505687284</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.042822416980868</v>
+        <v>1.042712087053505</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2546138677691986</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.257795967549597</v>
+        <v>1.257685637622233</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.2544816107386248</v>
+        <v>0.2546138677691986</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.2152177388004</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>68.95707718957658</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>83.17229492837699</v>
+        <v>83.16379349054299</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
     </row>
   </sheetData>
@@ -1920,22 +1920,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>93.596662260502</v>
+        <v>93.59801935506124</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.21521773880041</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>68.95707718957658</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>83.17229492837699</v>
+        <v>83.16379349054299</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>65.71529919139962</v>

--- a/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_21_summary.xlsx
@@ -991,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,52 @@
       </c>
       <c r="N3" s="4" t="n">
         <v>26.66666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>10.45751633986928</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>53.59477124183007</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>35.94771241830065</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>64.05228758169935</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>35.94771241830065</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,77 +1870,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -1912,54 +1946,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>21</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>93.59801935506124</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.21501162979527</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>68.94878186074772</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>83.16379349054299</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>16.83620650945702</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>83.16379349054299</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>16.83620650945702</v>
+        <v>4.178653654593925</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.71529919139962</v>
+        <v>85.55454704186324</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.178653654593925</v>
+        <v>10.26679930354283</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>85.55454704186324</v>
+        <v>89.73320069645717</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>10.26679930354283</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>89.73320069645717</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>10.26679930354283</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
